--- a/laporan/rancangan tabel.xlsx
+++ b/laporan/rancangan tabel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\gilang\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF63AF96-8588-4EB8-A37A-75F87074F72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE118415-4655-47B6-9B89-26F8DCC5F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="2050" windowWidth="9780" windowHeight="10800" xr2:uid="{F87833CC-63AA-43F3-894B-157B206C5580}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F87833CC-63AA-43F3-894B-157B206C5580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,14 +225,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC39A36-96AB-4770-AC47-FE68FBA9873F}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,829 +572,829 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>50</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>20</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="H15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="3">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2">
+        <v>11</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>30</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="3">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="I17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2">
+        <v>11</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="3">
-        <v>11</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="I18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="2">
+        <v>11</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="3">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>50</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="3">
-        <v>11</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="I19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="2">
+        <v>11</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>20</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="3">
-        <v>11</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="I24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="2">
+        <v>11</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="3">
-        <v>2</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="3">
-        <v>11</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="I25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="2">
+        <v>11</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>30</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="3">
-        <v>11</v>
-      </c>
-      <c r="K26" s="3" t="s">
+      <c r="I26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="2">
+        <v>11</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="3">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="3">
-        <v>11</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="I27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2">
+        <v>11</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>30</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="G30" s="2" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="G30" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="H30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="3">
-        <v>11</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="I31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="2">
+        <v>11</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3">
-        <v>11</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="3">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>30</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>2</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="2">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="3">
-        <v>11</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="3">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="2">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>16</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>30</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="3">
-        <v>4</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>100</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>4</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="2">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="3">
-        <v>11</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="3">
-        <v>11</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <v>2</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="2">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="3">
-        <v>11</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <v>3</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="2">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="3">
-        <v>11</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/laporan/rancangan tabel.xlsx
+++ b/laporan/rancangan tabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\gilang\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE118415-4655-47B6-9B89-26F8DCC5F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B4A633-FBF0-4FDF-BDF4-1B6AA3E07229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F87833CC-63AA-43F3-894B-157B206C5580}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -132,9 +132,6 @@
     <t>tabel barang</t>
   </si>
   <si>
-    <t>barang</t>
-  </si>
-  <si>
     <t>id_distributor</t>
   </si>
   <si>
@@ -163,6 +160,18 @@
   </si>
   <si>
     <t>tabel employee</t>
+  </si>
+  <si>
+    <t>harga_dist</t>
+  </si>
+  <si>
+    <t>tabel barang masuk</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>qty_masuk</t>
   </si>
 </sst>
 </file>
@@ -225,18 +234,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC39A36-96AB-4770-AC47-FE68FBA9873F}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,31 +580,32 @@
     <col min="9" max="9" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -683,28 +695,28 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -743,20 +755,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -923,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -951,20 +963,20 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -1082,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>6</v>
@@ -1144,52 +1156,52 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="G29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="G30" s="6" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="G30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="H30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="2">
@@ -1228,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>12</v>
@@ -1245,22 +1257,22 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G33" s="2">
         <v>3</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>12</v>
@@ -1277,22 +1289,22 @@
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2">
-        <v>30</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>4</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>12</v>
@@ -1305,102 +1317,211 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2">
-        <v>11</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>4</v>
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2">
+        <v>16</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="2">
+        <v>11</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="2">
-        <v>11</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="2">
+        <v>11</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="2">
-        <v>11</v>
-      </c>
-      <c r="E40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="2">
+        <v>11</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A37:E37"/>
+  <mergeCells count="10">
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:K36"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A14:E14"/>

--- a/laporan/rancangan tabel.xlsx
+++ b/laporan/rancangan tabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\gilang\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B4A633-FBF0-4FDF-BDF4-1B6AA3E07229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C72637-B367-4755-8031-C1C824E278FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F87833CC-63AA-43F3-894B-157B206C5580}"/>
   </bookViews>
@@ -240,14 +240,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC39A36-96AB-4770-AC47-FE68FBA9873F}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,13 +584,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -695,13 +695,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
@@ -755,20 +755,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -963,20 +963,20 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="5" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -1156,22 +1156,22 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
       <c r="G30" s="4" t="s">
         <v>0</v>
       </c>
@@ -1317,42 +1317,42 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="G36" s="5" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="G36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="B37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="1" t="s">

--- a/laporan/rancangan tabel.xlsx
+++ b/laporan/rancangan tabel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\gilang\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C72637-B367-4755-8031-C1C824E278FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D487A-D7BD-4E15-85F0-AACD4CEBC1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F87833CC-63AA-43F3-894B-157B206C5580}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rancangan tabel" sheetId="1" r:id="rId1"/>
+    <sheet name="laporan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -135,9 +136,6 @@
     <t>id_distributor</t>
   </si>
   <si>
-    <t>tabel detail produk</t>
-  </si>
-  <si>
     <t>id_barang</t>
   </si>
   <si>
@@ -172,6 +170,63 @@
   </si>
   <si>
     <t>qty_masuk</t>
+  </si>
+  <si>
+    <t>harga</t>
+  </si>
+  <si>
+    <t>kerangan</t>
+  </si>
+  <si>
+    <t>varhcar</t>
+  </si>
+  <si>
+    <t>tabel audit</t>
+  </si>
+  <si>
+    <t>id_admin</t>
+  </si>
+  <si>
+    <t>satuan</t>
+  </si>
+  <si>
+    <t>Barang</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>Laporan inventory</t>
+  </si>
+  <si>
+    <t>januari 2022</t>
+  </si>
+  <si>
+    <t>Harga beli</t>
+  </si>
+  <si>
+    <t>Qty masuk</t>
+  </si>
+  <si>
+    <t>Qty sekarang</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>tabel laporan</t>
+  </si>
+  <si>
+    <t>id_barang_masuk</t>
+  </si>
+  <si>
+    <t>id_audit</t>
+  </si>
+  <si>
+    <t>tanggal_print</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -234,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -242,10 +297,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC39A36-96AB-4770-AC47-FE68FBA9873F}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,7 +634,7 @@
     <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.08984375" bestFit="1" customWidth="1"/>
@@ -584,13 +642,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -695,13 +753,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
@@ -755,20 +813,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -935,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -970,28 +1028,28 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="G22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -1062,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>6</v>
@@ -1094,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>6</v>
@@ -1154,131 +1212,131 @@
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="3">
+        <v>10</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="A29" s="3">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="G30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="G30" s="4" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="G31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="H31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="B32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="2">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="I32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="2">
+        <v>11</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="2">
-        <v>2</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="2">
-        <v>30</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J33" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>14</v>
@@ -1286,31 +1344,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2">
-        <v>16</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G34" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J34" s="2">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>14</v>
@@ -1322,22 +1380,30 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="2">
+        <v>100</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="G36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="A36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
@@ -1355,21 +1421,13 @@
       <c r="E37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="G37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
@@ -1387,20 +1445,20 @@
       <c r="E38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="2">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>7</v>
+      <c r="G38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -1408,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>6</v>
@@ -1420,10 +1478,10 @@
         <v>25</v>
       </c>
       <c r="G39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>6</v>
@@ -1432,7 +1490,7 @@
         <v>11</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -1452,10 +1510,10 @@
         <v>25</v>
       </c>
       <c r="G40" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>6</v>
@@ -1472,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
@@ -1482,6 +1540,21 @@
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="G41" s="2">
+        <v>3</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="2">
+        <v>11</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -1489,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>6</v>
@@ -1500,6 +1573,21 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G42" s="3">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="3">
+        <v>255</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
@@ -1518,18 +1606,218 @@
         <v>14</v>
       </c>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="3">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="2">
+        <v>11</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G47" s="2">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="2">
+        <v>11</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G48" s="2">
+        <v>3</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="2">
+        <v>11</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G49" s="2">
+        <v>4</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="2">
+        <v>11</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G50" s="2">
+        <v>5</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="G44:K44"/>
     <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="G37:K37"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E96D453-EFB4-4B69-ACE7-141EF230A85C}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/laporan/rancangan tabel.xlsx
+++ b/laporan/rancangan tabel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\gilang\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D487A-D7BD-4E15-85F0-AACD4CEBC1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162A480-9CF6-42B6-8204-1C27801D241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F87833CC-63AA-43F3-894B-157B206C5580}"/>
+    <workbookView xWindow="5920" yWindow="1640" windowWidth="9780" windowHeight="10800" xr2:uid="{F87833CC-63AA-43F3-894B-157B206C5580}"/>
   </bookViews>
   <sheets>
     <sheet name="rancangan tabel" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -127,9 +127,6 @@
     <t>ket</t>
   </si>
   <si>
-    <t>no_transaksi</t>
-  </si>
-  <si>
     <t>tabel barang</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -297,10 +297,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -620,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC39A36-96AB-4770-AC47-FE68FBA9873F}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,13 +642,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -753,13 +753,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
@@ -813,20 +813,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="G14" s="8" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -957,20 +957,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2">
         <v>4</v>
@@ -989,20 +989,20 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2">
         <v>5</v>
@@ -1020,21 +1020,31 @@
         <v>14</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G21" s="3">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="3">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="G22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
@@ -1052,21 +1062,13 @@
       <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="G23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
@@ -1084,20 +1086,20 @@
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="2">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>7</v>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1117,10 +1119,10 @@
         <v>25</v>
       </c>
       <c r="G25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>6</v>
@@ -1129,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1149,10 +1151,10 @@
         <v>14</v>
       </c>
       <c r="G26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>6</v>
@@ -1181,10 +1183,10 @@
         <v>14</v>
       </c>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>6</v>
@@ -1193,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1212,19 +1214,19 @@
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="3">
-        <v>5</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="3">
-        <v>10</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="2">
+        <v>11</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1233,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>6</v>
@@ -1244,39 +1246,37 @@
       <c r="E29" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="G29" s="3">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="3">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="G31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
@@ -1294,20 +1294,20 @@
       <c r="E32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="2">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>7</v>
+      <c r="G32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -1327,19 +1327,19 @@
         <v>7</v>
       </c>
       <c r="G33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J33" s="2">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -1347,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -1359,16 +1359,16 @@
         <v>14</v>
       </c>
       <c r="G34" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J34" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>14</v>
@@ -1381,29 +1381,44 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="G35" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J35" s="2">
+        <v>16</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="G36" s="2">
+        <v>4</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="2">
         <v>100</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="K36" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
@@ -1421,13 +1436,6 @@
       <c r="E37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
@@ -1445,28 +1453,20 @@
       <c r="E38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="G38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>6</v>
@@ -1477,20 +1477,20 @@
       <c r="E39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="2">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>7</v>
+      <c r="G39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -1498,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>6</v>
@@ -1510,10 +1510,10 @@
         <v>25</v>
       </c>
       <c r="G40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>6</v>
@@ -1522,7 +1522,7 @@
         <v>11</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -1530,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
@@ -1542,10 +1542,10 @@
         <v>14</v>
       </c>
       <c r="G41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>6</v>
@@ -1562,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>6</v>
@@ -1573,20 +1573,20 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="3">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" s="3">
-        <v>255</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>14</v>
+      <c r="G42" s="2">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="2">
+        <v>11</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -1603,6 +1603,21 @@
         <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="3">
+        <v>255</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1611,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
@@ -1622,54 +1637,39 @@
       <c r="E44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="2">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>7</v>
+      <c r="H46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>6</v>
@@ -1678,15 +1678,15 @@
         <v>11</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>6</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="49" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G49" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>6</v>
@@ -1717,34 +1717,51 @@
     </row>
     <row r="50" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G50" s="2">
+        <v>4</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="2">
+        <v>11</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G51" s="2">
         <v>5</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G45:K45"/>
     <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A31:E31"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1771,7 +1788,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1782,7 +1799,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1793,25 +1810,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/laporan/rancangan tabel.xlsx
+++ b/laporan/rancangan tabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\gilang\laporan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Documents\myproject\gilang-ta\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162A480-9CF6-42B6-8204-1C27801D241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E16716B-CB73-4C14-9659-3DAC286310BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="1640" windowWidth="9780" windowHeight="10800" xr2:uid="{F87833CC-63AA-43F3-894B-157B206C5580}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F87833CC-63AA-43F3-894B-157B206C5580}"/>
   </bookViews>
   <sheets>
     <sheet name="rancangan tabel" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,8 +32,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User1</author>
+  </authors>
+  <commentList>
+    <comment ref="H44" authorId="0" shapeId="0" xr:uid="{E6D9D2FC-C4F9-456C-8379-466C98CA7352}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>User1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+tambah = succcess,
+ubah = warning, 
+hapus = delete</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -227,19 +261,35 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>warna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -619,11 +669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC39A36-96AB-4770-AC47-FE68FBA9873F}">
-  <dimension ref="A1:K51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC39A36-96AB-4770-AC47-FE68FBA9873F}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1637,56 +1687,54 @@
       <c r="E44" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G45" s="7" t="s">
+      <c r="G44" s="2">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G46" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="2">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>6</v>
@@ -1695,15 +1743,15 @@
         <v>11</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>6</v>
@@ -1717,10 +1765,10 @@
     </row>
     <row r="50" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G50" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>6</v>
@@ -1734,24 +1782,41 @@
     </row>
     <row r="51" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G51" s="2">
+        <v>4</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="2">
+        <v>11</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G52" s="2">
         <v>5</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G46:K46"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G38:K38"/>
     <mergeCell ref="A1:E1"/>
@@ -1764,6 +1829,7 @@
     <mergeCell ref="G31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
